--- a/data/trans_camb/P2A_enfcro_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P2A_enfcro_R-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,8; 15,5</t>
+          <t>3,21; 14,5</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,5; 12,93</t>
+          <t>1,15; 13,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>66,35; 76,96</t>
+          <t>66,17; 76,69</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 11,51</t>
+          <t>-1,92; 10,69</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-9,02; 3,97</t>
+          <t>-8,81; 3,51</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>48,14; 59,95</t>
+          <t>48,02; 59,54</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,69; 11,49</t>
+          <t>3,0; 11,76</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 6,53</t>
+          <t>-1,85; 7,16</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>59,04; 67,09</t>
+          <t>59,37; 66,93</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14,19; 73,04</t>
+          <t>13,49; 70,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,89; 61,99</t>
+          <t>4,14; 63,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>245,26; 391,48</t>
+          <t>250,06; 388,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 32,34</t>
+          <t>-4,46; 30,08</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-22,18; 11,53</t>
+          <t>-21,31; 10,27</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>115,23; 176,81</t>
+          <t>114,73; 173,02</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,26; 40,01</t>
+          <t>8,87; 41,11</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-6,01; 22,41</t>
+          <t>-5,8; 25,25</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>178,25; 239,55</t>
+          <t>179,87; 240,11</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,67; 15,86</t>
+          <t>5,6; 16,11</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,31; 5,11</t>
+          <t>-5,94; 4,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>62,38; 70,41</t>
+          <t>62,41; 70,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 10,64</t>
+          <t>-0,59; 10,49</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,82; 2,63</t>
+          <t>-8,43; 2,72</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>38,39; 54,2</t>
+          <t>38,29; 54,65</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,27; 11,92</t>
+          <t>4,54; 11,8</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,05; 2,72</t>
+          <t>-4,79; 2,69</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>52,6; 61,87</t>
+          <t>53,18; 61,99</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>18,01; 59,85</t>
+          <t>17,72; 59,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-16,96; 18,84</t>
+          <t>-18,88; 16,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>190,24; 268,7</t>
+          <t>188,68; 264,32</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 26,14</t>
+          <t>-1,39; 25,43</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-18,84; 6,41</t>
+          <t>-17,97; 6,64</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>86,09; 136,08</t>
+          <t>88,94; 136,21</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>11,19; 35,02</t>
+          <t>12,06; 34,15</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-13,51; 7,81</t>
+          <t>-12,79; 8,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>138,7; 182,16</t>
+          <t>142,11; 183,87</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,02; 12,52</t>
+          <t>1,5; 12,13</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,18; 4,87</t>
+          <t>-6,34; 4,93</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>56,0; 64,85</t>
+          <t>56,14; 64,68</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,19; 10,49</t>
+          <t>-0,1; 10,6</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-9,16; 1,93</t>
+          <t>-8,97; 1,46</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>37,47; 45,95</t>
+          <t>37,75; 45,7</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,83; 9,93</t>
+          <t>1,76; 9,7</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,43; 1,65</t>
+          <t>-6,49; 1,63</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>47,81; 53,76</t>
+          <t>47,93; 54,09</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,38; 38,19</t>
+          <t>4,2; 37,9</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-16,1; 14,87</t>
+          <t>-16,92; 15,16</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>142,64; 204,21</t>
+          <t>143,15; 203,04</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,43; 20,91</t>
+          <t>-0,23; 21,42</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-16,76; 3,91</t>
+          <t>-16,33; 2,82</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>67,73; 94,34</t>
+          <t>67,05; 92,97</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3,97; 23,73</t>
+          <t>3,93; 22,97</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-13,87; 3,99</t>
+          <t>-14,12; 3,84</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>101,89; 129,76</t>
+          <t>101,95; 130,5</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 8,05</t>
+          <t>-3,92; 7,98</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 9,96</t>
+          <t>-1,71; 9,54</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>42,15; 51,53</t>
+          <t>42,06; 51,31</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,55; 12,89</t>
+          <t>1,49; 13,26</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-10,91; 1,22</t>
+          <t>-11,09; 1,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>26,37; 35,69</t>
+          <t>26,85; 35,29</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,64; 8,85</t>
+          <t>0,53; 8,91</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-5,13; 3,44</t>
+          <t>-4,84; 3,64</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>35,8; 42,43</t>
+          <t>35,79; 42,17</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-9,03; 17,4</t>
+          <t>-7,38; 17,1</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 21,49</t>
+          <t>-3,35; 20,3</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>77,31; 112,41</t>
+          <t>76,47; 111,59</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2,22; 20,77</t>
+          <t>2,09; 20,98</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-15,5; 2,35</t>
+          <t>-16,15; 1,44</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>37,72; 58,61</t>
+          <t>38,67; 57,47</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>1,07; 16,21</t>
+          <t>0,87; 16,07</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-8,53; 6,17</t>
+          <t>-8,05; 6,62</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>58,89; 77,63</t>
+          <t>58,87; 77,22</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 7,67</t>
+          <t>-4,34; 7,81</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-15,7; -3,5</t>
+          <t>-15,2; -2,69</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>16,78; 25,81</t>
+          <t>16,82; 26,06</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>4,27; 15,19</t>
+          <t>4,59; 15,03</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 8,74</t>
+          <t>-2,78; 8,38</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>14,69; 23,14</t>
+          <t>14,23; 22,53</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,53; 9,51</t>
+          <t>1,89; 9,71</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-7,8; 0,67</t>
+          <t>-7,46; 1,12</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>16,98; 23,11</t>
+          <t>16,82; 23,04</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-5,83; 10,49</t>
+          <t>-5,51; 10,98</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-20,33; -4,83</t>
+          <t>-19,48; -3,62</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>20,99; 36,21</t>
+          <t>21,22; 36,88</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>5,4; 20,75</t>
+          <t>5,81; 20,06</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 11,66</t>
+          <t>-3,42; 11,14</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>17,92; 31,38</t>
+          <t>17,16; 30,34</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>1,92; 12,81</t>
+          <t>2,36; 12,96</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-9,8; 0,87</t>
+          <t>-9,37; 1,51</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>21,44; 31,42</t>
+          <t>21,14; 31,19</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>4,77; 12,12</t>
+          <t>5,02; 12,05</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>0,85; 8,69</t>
+          <t>0,87; 8,88</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>9,51; 16,08</t>
+          <t>10,13; 16,27</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>1,07; 5,81</t>
+          <t>0,77; 5,88</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 3,23</t>
+          <t>-2,13; 3,28</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>4,21; 8,32</t>
+          <t>4,02; 8,31</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>3,39; 7,87</t>
+          <t>3,53; 7,73</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>0,02; 4,75</t>
+          <t>0,27; 4,78</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>7,15; 10,86</t>
+          <t>7,12; 10,74</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>5,5; 14,69</t>
+          <t>5,71; 14,55</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>0,94; 10,32</t>
+          <t>1,0; 10,78</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>10,71; 19,57</t>
+          <t>11,46; 19,79</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>1,14; 6,41</t>
+          <t>0,81; 6,49</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 3,53</t>
+          <t>-2,19; 3,64</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>4,48; 9,21</t>
+          <t>4,25; 9,19</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>3,73; 8,99</t>
+          <t>3,91; 8,77</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,37</t>
+          <t>0,33; 5,41</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>7,82; 12,37</t>
+          <t>7,83; 12,24</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>5,69; 10,67</t>
+          <t>5,69; 10,66</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>1,81; 6,53</t>
+          <t>1,36; 6,52</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>48,02; 51,62</t>
+          <t>47,76; 51,61</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>4,44; 9,12</t>
+          <t>4,48; 9,17</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 2,65</t>
+          <t>-2,07; 2,7</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>31,81; 35,71</t>
+          <t>31,93; 35,82</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>5,82; 9,24</t>
+          <t>5,9; 9,23</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>0,67; 4,08</t>
+          <t>0,6; 3,96</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>40,24; 43,07</t>
+          <t>40,37; 43,15</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>12,08; 23,28</t>
+          <t>11,75; 23,33</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>3,75; 14,25</t>
+          <t>2,83; 14,27</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>98,71; 114,17</t>
+          <t>97,87; 113,41</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>7,06; 15,05</t>
+          <t>7,07; 15,2</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 4,41</t>
+          <t>-3,25; 4,45</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>49,96; 58,89</t>
+          <t>50,29; 59,35</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>10,52; 17,26</t>
+          <t>10,49; 17,12</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>1,2; 7,53</t>
+          <t>1,07; 7,36</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>72,1; 80,72</t>
+          <t>72,49; 80,87</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2A_enfcro_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P2A_enfcro_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>9,38</t>
+          <t>9,34</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,61</t>
+          <t>7,58</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>71,69</t>
+          <t>3,71</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,64</t>
+          <t>4,36</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-2,65</t>
+          <t>-1,84</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>54,25</t>
+          <t>-12,69</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>7,08</t>
+          <t>6,92</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,62</t>
+          <t>2,99</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>63,22</t>
+          <t>-4,17</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,21; 14,5</t>
+          <t>3,48; 14,77</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,15; 13,43</t>
+          <t>1,15; 13,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>66,17; 76,69</t>
+          <t>-4,39; 13,54</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 10,69</t>
+          <t>-1,95; 10,77</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,81; 3,51</t>
+          <t>-8,26; 4,22</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>48,02; 59,54</t>
+          <t>-21,13; -5,08</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,0; 11,76</t>
+          <t>2,91; 11,56</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 7,16</t>
+          <t>-1,45; 7,42</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>59,37; 66,93</t>
+          <t>-9,95; 2,42</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>40,03%</t>
+          <t>42,17%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>32,49%</t>
+          <t>34,2%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>305,94%</t>
+          <t>16,75%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>12,18%</t>
+          <t>11,94%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-6,96%</t>
+          <t>-5,04%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>142,42%</t>
+          <t>-34,74%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>23,16%</t>
+          <t>23,76%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>8,57%</t>
+          <t>10,28%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>206,86%</t>
+          <t>-14,3%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,49; 70,13</t>
+          <t>12,95; 74,72</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,14; 63,46</t>
+          <t>4,37; 64,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>250,06; 388,35</t>
+          <t>-18,47; 67,37</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 30,08</t>
+          <t>-4,66; 32,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-21,31; 10,27</t>
+          <t>-20,88; 12,54</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>114,73; 173,02</t>
+          <t>-54,18; -13,81</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,87; 41,11</t>
+          <t>9,17; 42,77</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 25,25</t>
+          <t>-4,58; 27,61</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>179,87; 240,11</t>
+          <t>-33,11; 8,62</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>10,9</t>
+          <t>11,2</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,37</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>66,63</t>
+          <t>-4,8</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,02</t>
+          <t>3,79</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-3,11</t>
+          <t>-3,7</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>49,19</t>
+          <t>-23,89</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>8,28</t>
+          <t>7,89</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-1,3</t>
+          <t>-0,83</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>58,35</t>
+          <t>-13,83</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,6; 16,11</t>
+          <t>6,03; 16,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,94; 4,5</t>
+          <t>-4,46; 5,94</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>62,41; 70,36</t>
+          <t>-10,79; 1,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 10,49</t>
+          <t>-1,92; 9,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,43; 2,72</t>
+          <t>-9,31; 1,74</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>38,29; 54,65</t>
+          <t>-32,89; -17,87</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,54; 11,8</t>
+          <t>4,05; 11,18</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 2,69</t>
+          <t>-4,37; 3,1</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>53,18; 61,99</t>
+          <t>-19,42; -9,37</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>36,71%</t>
+          <t>40,81%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,23%</t>
+          <t>3,64%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>224,46%</t>
+          <t>-17,48%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>11,5%</t>
+          <t>8,68%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-7,11%</t>
+          <t>-8,48%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>112,63%</t>
+          <t>-54,79%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>22,94%</t>
+          <t>22,61%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-3,61%</t>
+          <t>-2,38%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>161,55%</t>
+          <t>-39,66%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,72; 59,57</t>
+          <t>20,13; 65,32</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-18,88; 16,48</t>
+          <t>-14,65; 24,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>188,68; 264,32</t>
+          <t>-36,85; 7,05</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 25,43</t>
+          <t>-4,33; 22,94</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-17,97; 6,64</t>
+          <t>-19,82; 4,31</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>88,94; 136,21</t>
+          <t>-71,47; -42,68</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>12,06; 34,15</t>
+          <t>11,14; 34,18</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-12,79; 8,0</t>
+          <t>-11,94; 9,43</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>142,11; 183,87</t>
+          <t>-55,36; -28,29</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>6,95</t>
+          <t>7,45</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,39</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>60,72</t>
+          <t>-13,04</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,16</t>
+          <t>5,42</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-3,86</t>
+          <t>-3,76</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>41,93</t>
+          <t>-27,45</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>5,88</t>
+          <t>6,26</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-2,5</t>
+          <t>-2,4</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>50,96</t>
+          <t>-20,5</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,5; 12,13</t>
+          <t>2,04; 12,87</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,34; 4,93</t>
+          <t>-5,95; 5,25</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>56,14; 64,68</t>
+          <t>-17,92; -7,73</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 10,6</t>
+          <t>-0,14; 10,39</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,97; 1,46</t>
+          <t>-8,78; 1,38</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>37,75; 45,7</t>
+          <t>-34,47; -22,57</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,76; 9,7</t>
+          <t>2,21; 10,27</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,49; 1,63</t>
+          <t>-6,31; 1,68</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>47,93; 54,09</t>
+          <t>-24,88; -16,78</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>19,78%</t>
+          <t>22,17%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-1,12%</t>
+          <t>-0,8%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>172,75%</t>
+          <t>-38,8%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>9,82%</t>
+          <t>10,54%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-7,35%</t>
+          <t>-7,3%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>79,79%</t>
+          <t>-53,36%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>13,32%</t>
+          <t>14,6%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-5,66%</t>
+          <t>-5,59%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>115,33%</t>
+          <t>-47,83%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,2; 37,9</t>
+          <t>5,93; 41,72</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-16,92; 15,16</t>
+          <t>-16,12; 16,89</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>143,15; 203,04</t>
+          <t>-50,23; -23,87</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 21,42</t>
+          <t>-0,07; 21,8</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-16,33; 2,82</t>
+          <t>-16,38; 2,65</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>67,05; 92,97</t>
+          <t>-65,15; -45,59</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3,93; 22,97</t>
+          <t>4,77; 25,31</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-14,12; 3,84</t>
+          <t>-14,03; 4,2</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>101,95; 130,5</t>
+          <t>-55,39; -40,88</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,86</t>
+          <t>2,63</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,8</t>
+          <t>4,24</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>46,88</t>
+          <t>-25,5</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>7,31</t>
+          <t>7,69</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-5,32</t>
+          <t>-4,15</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>30,96</t>
+          <t>-28,6</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>4,62</t>
+          <t>5,2</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-0,73</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>38,94</t>
+          <t>-27,72</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 7,98</t>
+          <t>-3,15; 9,03</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 9,54</t>
+          <t>-1,47; 9,57</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>42,06; 51,31</t>
+          <t>-40,77; -15,36</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,49; 13,26</t>
+          <t>1,94; 13,67</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-11,09; 1,0</t>
+          <t>-10,06; 1,87</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>26,85; 35,29</t>
+          <t>-34,85; -23,01</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,53; 8,91</t>
+          <t>1,19; 9,49</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,84; 3,64</t>
+          <t>-3,92; 4,74</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>35,79; 42,17</t>
+          <t>-39,09; -21,29</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>3,72%</t>
+          <t>5,54%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>7,6%</t>
+          <t>8,95%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>93,71%</t>
+          <t>-53,8%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>11,13%</t>
+          <t>12,17%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-8,11%</t>
+          <t>-6,56%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>47,18%</t>
+          <t>-45,27%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>8,0%</t>
+          <t>9,41%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-1,26%</t>
+          <t>0,15%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>67,38%</t>
+          <t>-50,15%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-7,38; 17,1</t>
+          <t>-6,17; 20,55</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 20,3</t>
+          <t>-2,84; 22,11</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>76,47; 111,59</t>
+          <t>-81,15; -33,12</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2,09; 20,98</t>
+          <t>2,99; 23,29</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-16,15; 1,44</t>
+          <t>-15,14; 3,1</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>38,67; 57,47</t>
+          <t>-54,14; -38,41</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0,87; 16,07</t>
+          <t>2,02; 18,0</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-8,05; 6,62</t>
+          <t>-6,85; 8,91</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>58,87; 77,22</t>
+          <t>-69,94; -38,9</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>1,91</t>
+          <t>4,79</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-9,29</t>
+          <t>-6,95</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>21,3</t>
+          <t>-26,84</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>9,61</t>
+          <t>8,87</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>2,78</t>
+          <t>1,37</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>18,65</t>
+          <t>-27,7</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>5,84</t>
+          <t>6,87</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-3,14</t>
+          <t>-2,72</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>19,94</t>
+          <t>-27,37</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 7,81</t>
+          <t>-1,51; 11,05</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-15,2; -2,69</t>
+          <t>-13,2; 0,09</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>16,82; 26,06</t>
+          <t>-32,65; -20,6</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>4,59; 15,03</t>
+          <t>3,58; 14,27</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 8,38</t>
+          <t>-4,31; 6,96</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>14,23; 22,53</t>
+          <t>-32,92; -22,34</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,89; 9,71</t>
+          <t>2,87; 10,95</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-7,46; 1,12</t>
+          <t>-7,07; 1,93</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>16,82; 23,04</t>
+          <t>-31,31; -23,22</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>2,54%</t>
+          <t>6,76%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-12,33%</t>
+          <t>-9,81%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>28,25%</t>
+          <t>-37,87%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>12,28%</t>
+          <t>11,46%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>3,56%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>23,82%</t>
+          <t>-35,79%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>7,6%</t>
+          <t>9,26%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-4,09%</t>
+          <t>-3,66%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>25,94%</t>
+          <t>-36,89%</t>
         </is>
       </c>
     </row>
@@ -1655,54 +1655,54 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-5,51; 10,98</t>
+          <t>-2,05; 16,23</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-19,48; -3,62</t>
+          <t>-17,82; 0,19</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>21,22; 36,88</t>
+          <t>-44,31; -30,94</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>5,81; 20,06</t>
+          <t>4,73; 19,27</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 11,14</t>
+          <t>-5,52; 9,28</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>17,16; 30,34</t>
+          <t>-40,79; -30,05</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>2,36; 12,96</t>
+          <t>3,78; 15,38</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-9,37; 1,51</t>
+          <t>-9,33; 2,65</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>21,14; 31,19</t>
+          <t>-41,21; -32,56</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>8,65</t>
+          <t>15,88</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>4,71</t>
+          <t>10,58</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>12,75</t>
+          <t>-29,81</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>3,4</t>
+          <t>5,82</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>5,97</t>
+          <t>-15,61</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>5,63</t>
+          <t>10,44</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>2,34</t>
+          <t>5,06</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>8,86</t>
+          <t>-19,99</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>5,02; 12,05</t>
+          <t>10,42; 21,27</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>0,87; 8,88</t>
+          <t>4,42; 16,45</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>10,13; 16,27</t>
+          <t>-35,51; -22,32</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>0,77; 5,88</t>
+          <t>1,98; 10,16</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 3,28</t>
+          <t>-4,46; 4,83</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>4,02; 8,31</t>
+          <t>-31,0; 1,53</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>3,53; 7,73</t>
+          <t>6,78; 13,97</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>0,27; 4,78</t>
+          <t>1,11; 8,85</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>7,12; 10,74</t>
+          <t>-31,31; 0,39</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>10,08%</t>
+          <t>20,64%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>5,49%</t>
+          <t>13,74%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>14,86%</t>
+          <t>-38,73%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>3,67%</t>
+          <t>6,57%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>0,66%</t>
+          <t>0,42%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>6,44%</t>
+          <t>-17,63%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>6,27%</t>
+          <t>12,55%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>6,08%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>9,87%</t>
+          <t>-24,03%</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>5,71; 14,55</t>
+          <t>12,9; 29,21</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>1,0; 10,78</t>
+          <t>5,57; 22,43</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>11,46; 19,79</t>
+          <t>-44,99; -31,23</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>0,81; 6,49</t>
+          <t>2,17; 11,92</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 3,64</t>
+          <t>-4,91; 5,6</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>4,25; 9,19</t>
+          <t>-34,64; 1,78</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>3,91; 8,77</t>
+          <t>7,96; 17,35</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>0,33; 5,41</t>
+          <t>1,28; 10,89</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>7,83; 12,24</t>
+          <t>-37,34; 0,47</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>8,25</t>
+          <t>8,15</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>4,08</t>
+          <t>6,16</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>49,73</t>
+          <t>-23,37</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>6,78</t>
+          <t>7,16</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>6,25</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>33,96</t>
+          <t>-23,1</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>7,53</t>
+          <t>7,54</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>2,22</t>
+          <t>6,2</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>41,71</t>
+          <t>-23,25</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>5,69; 10,66</t>
+          <t>3,21; 13,84</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>1,36; 6,52</t>
+          <t>1,37; 12,01</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>47,76; 51,61</t>
+          <t>-29,08; -16,11</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>4,48; 9,17</t>
+          <t>3,52; 11,29</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 2,7</t>
+          <t>2,12; 10,42</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>31,93; 35,82</t>
+          <t>-27,64; -18,04</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>5,9; 9,23</t>
+          <t>4,53; 10,71</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>0,6; 3,96</t>
+          <t>3,16; 9,44</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>40,37; 43,15</t>
+          <t>-26,97; -19,39</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>17,54%</t>
+          <t>9,37%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>8,67%</t>
+          <t>7,08%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>105,75%</t>
+          <t>-26,86%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>10,94%</t>
+          <t>7,97%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>0,58%</t>
+          <t>6,95%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>54,76%</t>
+          <t>-25,69%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>13,78%</t>
+          <t>8,49%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>6,98%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>76,33%</t>
+          <t>-26,18%</t>
         </is>
       </c>
     </row>
@@ -2087,59 +2087,276 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>11,75; 23,33</t>
+          <t>3,6; 16,79</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>2,83; 14,27</t>
+          <t>1,59; 14,82</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>97,87; 113,41</t>
+          <t>-32,51; -19,41</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>7,07; 15,2</t>
+          <t>3,79; 13,13</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 4,45</t>
+          <t>2,34; 12,01</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>50,29; 59,35</t>
+          <t>-30,16; -20,74</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>10,49; 17,12</t>
+          <t>5,05; 12,53</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>1,07; 7,36</t>
+          <t>3,52; 10,91</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>72,49; 80,87</t>
+          <t>-29,79; -22,27</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>9,51</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>5,33</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>-12,44</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>7,17</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>0,91</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>-18,24</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>8,34</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>3,12</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>-15,28</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>6,9; 11,92</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>2,69; 7,78</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-20,42; -9,09</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>4,84; 9,48</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-1,51; 3,33</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-22,49; -7,89</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>6,67; 10,08</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>1,39; 4,82</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>-19,24; -10,43</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>21,42%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>12,0%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>-28,04%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>11,87%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>1,51%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>-30,2%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>15,89%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>5,94%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>-29,11%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>15,06; 27,68</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>5,84; 18,0</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>-45,53; -20,72</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>7,81; 16,09</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>-2,47; 5,6</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>-37,05; -13,03</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>12,43; 19,6</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>2,59; 9,35</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>-36,57; -19,86</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>

--- a/data/trans_camb/P2A_enfcro_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P2A_enfcro_R-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,48; 14,77</t>
+          <t>3,89; 15,53</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,15; 13,06</t>
+          <t>1,13; 13,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 13,54</t>
+          <t>-4,25; 12,77</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 10,77</t>
+          <t>-1,57; 11,07</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,26; 4,22</t>
+          <t>-8,45; 3,89</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-21,13; -5,08</t>
+          <t>-19,99; -4,34</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,91; 11,56</t>
+          <t>2,95; 11,33</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 7,42</t>
+          <t>-1,32; 7,49</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-9,95; 2,42</t>
+          <t>-10,2; 1,92</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,95; 74,72</t>
+          <t>14,74; 81,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,37; 64,6</t>
+          <t>4,65; 66,63</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-18,47; 67,37</t>
+          <t>-19,18; 62,01</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 32,45</t>
+          <t>-4,38; 32,36</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-20,88; 12,54</t>
+          <t>-21,56; 11,08</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-54,18; -13,81</t>
+          <t>-52,5; -11,83</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>9,17; 42,77</t>
+          <t>9,28; 41,23</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-4,58; 27,61</t>
+          <t>-3,77; 28,47</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-33,11; 8,62</t>
+          <t>-32,99; 6,47</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,03; 16,19</t>
+          <t>5,59; 15,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 5,94</t>
+          <t>-3,56; 6,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,79; 1,85</t>
+          <t>-11,03; 1,7</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 9,29</t>
+          <t>-2,02; 9,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,31; 1,74</t>
+          <t>-9,51; 1,59</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-32,89; -17,87</t>
+          <t>-32,61; -17,39</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,05; 11,18</t>
+          <t>3,81; 11,55</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 3,1</t>
+          <t>-4,42; 3,31</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-19,42; -9,37</t>
+          <t>-19,87; -9,35</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>20,13; 65,32</t>
+          <t>18,95; 63,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-14,65; 24,86</t>
+          <t>-11,78; 24,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-36,85; 7,05</t>
+          <t>-38,42; 7,29</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 22,94</t>
+          <t>-4,21; 23,78</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-19,82; 4,31</t>
+          <t>-21,14; 3,74</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-71,47; -42,68</t>
+          <t>-72,13; -42,66</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>11,14; 34,18</t>
+          <t>10,59; 34,88</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-11,94; 9,43</t>
+          <t>-12,12; 10,16</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-55,36; -28,29</t>
+          <t>-54,7; -28,28</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,04; 12,87</t>
+          <t>2,15; 13,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,95; 5,25</t>
+          <t>-5,53; 4,92</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-17,92; -7,73</t>
+          <t>-18,24; -7,78</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 10,39</t>
+          <t>0,43; 11,37</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,78; 1,38</t>
+          <t>-9,09; 1,61</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-34,47; -22,57</t>
+          <t>-34,65; -22,41</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,21; 10,27</t>
+          <t>1,8; 10,04</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,31; 1,68</t>
+          <t>-6,66; 1,16</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-24,88; -16,78</t>
+          <t>-24,95; -16,86</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,93; 41,72</t>
+          <t>6,06; 43,82</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-16,12; 16,89</t>
+          <t>-15,52; 15,73</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-50,23; -23,87</t>
+          <t>-51,26; -25,79</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 21,8</t>
+          <t>0,76; 23,73</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-16,38; 2,65</t>
+          <t>-16,51; 3,4</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-65,15; -45,59</t>
+          <t>-63,98; -45,63</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,77; 25,31</t>
+          <t>3,61; 24,11</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-14,03; 4,2</t>
+          <t>-14,9; 2,76</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-55,39; -40,88</t>
+          <t>-56,47; -40,97</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 9,03</t>
+          <t>-3,87; 8,9</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 9,57</t>
+          <t>-1,48; 10,34</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-40,77; -15,36</t>
+          <t>-38,42; -14,36</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,94; 13,67</t>
+          <t>2,22; 13,52</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-10,06; 1,87</t>
+          <t>-9,82; 1,58</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-34,85; -23,01</t>
+          <t>-35,02; -23,18</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,19; 9,49</t>
+          <t>1,05; 9,88</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 4,74</t>
+          <t>-4,31; 4,19</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-39,09; -21,29</t>
+          <t>-39,56; -21,34</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-6,17; 20,55</t>
+          <t>-7,53; 19,74</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 22,11</t>
+          <t>-3,03; 23,12</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-81,15; -33,12</t>
+          <t>-78,97; -31,82</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2,99; 23,29</t>
+          <t>3,28; 22,58</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-15,14; 3,1</t>
+          <t>-14,81; 2,51</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-54,14; -38,41</t>
+          <t>-53,82; -38,45</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>2,02; 18,0</t>
+          <t>1,94; 18,82</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-6,85; 8,91</t>
+          <t>-7,41; 7,78</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-69,94; -38,9</t>
+          <t>-70,93; -39,2</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 11,05</t>
+          <t>-0,99; 11,45</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-13,2; 0,09</t>
+          <t>-13,99; -0,47</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-32,65; -20,6</t>
+          <t>-32,56; -20,3</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>3,58; 14,27</t>
+          <t>3,82; 14,12</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 6,96</t>
+          <t>-4,14; 7,6</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-32,92; -22,34</t>
+          <t>-33,26; -22,51</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>2,87; 10,95</t>
+          <t>2,6; 11,04</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-7,07; 1,93</t>
+          <t>-7,2; 1,27</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-31,31; -23,22</t>
+          <t>-31,43; -23,46</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 16,23</t>
+          <t>-1,4; 16,63</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-17,82; 0,19</t>
+          <t>-18,82; -0,59</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-44,31; -30,94</t>
+          <t>-43,91; -30,02</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>4,73; 19,27</t>
+          <t>4,78; 19,2</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-5,52; 9,28</t>
+          <t>-5,19; 10,07</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-40,79; -30,05</t>
+          <t>-41,2; -30,22</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>3,78; 15,38</t>
+          <t>3,46; 15,3</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-9,33; 2,65</t>
+          <t>-9,35; 1,76</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-41,21; -32,56</t>
+          <t>-41,35; -32,81</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>10,42; 21,27</t>
+          <t>10,51; 21,85</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>4,42; 16,45</t>
+          <t>4,62; 16,81</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-35,51; -22,32</t>
+          <t>-36,04; -23,35</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>1,98; 10,16</t>
+          <t>1,5; 9,66</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 4,83</t>
+          <t>-3,83; 5,0</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-31,0; 1,53</t>
+          <t>-30,94; 1,22</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>6,78; 13,97</t>
+          <t>7,07; 13,81</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>1,11; 8,85</t>
+          <t>0,81; 8,61</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-31,31; 0,39</t>
+          <t>-31,3; -1,74</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>12,9; 29,21</t>
+          <t>12,93; 29,9</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>5,57; 22,43</t>
+          <t>5,67; 23,13</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-44,99; -31,23</t>
+          <t>-45,19; -32,01</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>2,17; 11,92</t>
+          <t>1,73; 11,28</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 5,6</t>
+          <t>-4,19; 5,79</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-34,64; 1,78</t>
+          <t>-34,63; 1,4</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>7,96; 17,35</t>
+          <t>8,3; 17,08</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>1,28; 10,89</t>
+          <t>0,91; 10,54</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-37,34; 0,47</t>
+          <t>-37,17; -2,04</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>3,21; 13,84</t>
+          <t>3,35; 13,97</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>1,37; 12,01</t>
+          <t>0,83; 12,09</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-29,08; -16,11</t>
+          <t>-29,95; -16,76</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>3,52; 11,29</t>
+          <t>3,42; 11,03</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>2,12; 10,42</t>
+          <t>2,23; 10,55</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-27,64; -18,04</t>
+          <t>-27,33; -17,86</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>4,53; 10,71</t>
+          <t>4,47; 10,86</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>3,16; 9,44</t>
+          <t>3,08; 9,44</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-26,97; -19,39</t>
+          <t>-26,92; -18,73</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>3,6; 16,79</t>
+          <t>3,67; 17,03</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>1,59; 14,82</t>
+          <t>0,9; 14,41</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-32,51; -19,41</t>
+          <t>-33,5; -20,16</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>3,79; 13,13</t>
+          <t>3,7; 12,71</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>2,34; 12,01</t>
+          <t>2,48; 12,19</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-30,16; -20,74</t>
+          <t>-29,99; -20,89</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>5,05; 12,53</t>
+          <t>4,88; 12,57</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>3,52; 10,91</t>
+          <t>3,41; 10,89</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-29,79; -22,27</t>
+          <t>-29,67; -21,5</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>6,9; 11,92</t>
+          <t>7,08; 12,12</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>2,69; 7,78</t>
+          <t>2,77; 7,95</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-20,42; -9,09</t>
+          <t>-19,08; -8,91</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>4,84; 9,48</t>
+          <t>4,98; 9,46</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 3,33</t>
+          <t>-1,57; 3,08</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-22,49; -7,89</t>
+          <t>-22,53; -7,55</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>6,67; 10,08</t>
+          <t>6,63; 10,07</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>1,39; 4,82</t>
+          <t>1,37; 4,94</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-19,24; -10,43</t>
+          <t>-18,82; -9,31</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>15,06; 27,68</t>
+          <t>15,39; 28,18</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>5,84; 18,0</t>
+          <t>6,06; 18,5</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-45,53; -20,72</t>
+          <t>-42,66; -20,33</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>7,81; 16,09</t>
+          <t>8,12; 16,05</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 5,6</t>
+          <t>-2,52; 5,24</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-37,05; -13,03</t>
+          <t>-37,11; -12,58</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>12,43; 19,6</t>
+          <t>12,53; 19,61</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>2,59; 9,35</t>
+          <t>2,62; 9,62</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-36,57; -19,86</t>
+          <t>-35,85; -17,9</t>
         </is>
       </c>
     </row>
